--- a/data_final/consolidated/dictionaries/Z_Dict.xlsx
+++ b/data_final/consolidated/dictionaries/Z_Dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wimer\github\opioid-policy-scan\data_final\consolidated\dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D6826-73F4-4423-924A-3090452903A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA95D62-E31D-4379-8433-95548672B380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" xr2:uid="{09EDD834-1AFA-47A4-9D3D-06147D07211D}"/>
+    <workbookView xWindow="42157" yWindow="-14558" windowWidth="19365" windowHeight="21683" xr2:uid="{09EDD834-1AFA-47A4-9D3D-06147D07211D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="349">
   <si>
     <t>GEOID</t>
   </si>
@@ -905,117 +905,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>1 NA value</t>
-  </si>
-  <si>
-    <t>36 NA values</t>
-  </si>
-  <si>
-    <t>320 NA values</t>
-  </si>
-  <si>
-    <t>412 NA values</t>
-  </si>
-  <si>
-    <t>356 NA values</t>
-  </si>
-  <si>
-    <t>474 NA values</t>
-  </si>
-  <si>
-    <t>772 NA values</t>
-  </si>
-  <si>
-    <t>1177 NA values</t>
-  </si>
-  <si>
-    <t>575 NA values</t>
-  </si>
-  <si>
-    <t>562 NA values</t>
-  </si>
-  <si>
-    <t>3673 NA values</t>
-  </si>
-  <si>
-    <t>663 NA values</t>
-  </si>
-  <si>
-    <t>3320 NA values</t>
-  </si>
-  <si>
-    <t>593 NA values</t>
-  </si>
-  <si>
-    <t>598 NA values</t>
-  </si>
-  <si>
-    <t>487 NA values</t>
-  </si>
-  <si>
-    <t>22 NA values</t>
-  </si>
-  <si>
-    <t>139 NA values</t>
-  </si>
-  <si>
-    <t>466 NA values</t>
-  </si>
-  <si>
-    <t>386 NA values</t>
-  </si>
-  <si>
-    <t>413 NA values</t>
-  </si>
-  <si>
-    <t>3592 NA values</t>
-  </si>
-  <si>
-    <t>827 NA values</t>
-  </si>
-  <si>
-    <t>4172 NA values</t>
-  </si>
-  <si>
-    <t>20294 NA values</t>
-  </si>
-  <si>
-    <t>9459 NA values</t>
-  </si>
-  <si>
-    <t>410 NA values</t>
-  </si>
-  <si>
-    <t>276 NA values</t>
-  </si>
-  <si>
-    <t>285 NA values</t>
-  </si>
-  <si>
-    <t>315 NA values</t>
-  </si>
-  <si>
-    <t>300 NA values</t>
-  </si>
-  <si>
-    <t>3209 NA values</t>
-  </si>
-  <si>
-    <t>185 NA values</t>
-  </si>
-  <si>
-    <t>181 NA values</t>
-  </si>
-  <si>
-    <t>145 NA values</t>
-  </si>
-  <si>
-    <t>143 NA values</t>
-  </si>
-  <si>
-    <t>150 NA values</t>
-  </si>
-  <si>
     <t>TotVetPop</t>
   </si>
   <si>
@@ -1161,6 +1050,41 @@
   </si>
   <si>
     <t>Longitudinal</t>
+  </si>
+  <si>
+    <t>Estimate baed on crosswalking the original CDC SVI Census tract measures to ZIP codes.</t>
+  </si>
+  <si>
+    <t>This is the taken by a team of individuals in a continuum of care in one day. It is difficult to measure homelessness at a local and Federal level as the population is relatively mobile, homelessness can be cyclical and there are visibility issues for the homeless community, so the annual point in time count was used as a proxy for homelessness in this dataset. Data was geocoded then spatially joined at the tract, ZCTA, state and county level to see where continuums of care are located and the availibility of temporary housing solutions.</t>
+  </si>
+  <si>
+    <t>Please note this dataset uses industry as a classifier and does not include any information about the specific occupation in that industry. This could lead to an overestimation of High Risk to Injury workers category.</t>
+  </si>
+  <si>
+    <t>Alcohol outlet density is one approximation for accessibility or demand, though a limited one for describing or understanding the complex relationship between alcohol consumption and the surrounding area or communithy.
+The category of 'alcohol outlets' included in this dataset does not include supermarkets and/or drug stores that may carry beer, wine, or liquor. The laws governing these sales varies from state to state, permitting alcohol sales in different kind of sales outlets. Outlets that are permitted to make these sales may not always fall under the same NAICS code for Beer, Wine, and Liquor Stores.</t>
+  </si>
+  <si>
+    <t>The three indices measuring residential segregation included here represent two categories of measures of residential segregation: measures of evenness (dissimiliarity) and measures of exposure (interaction and isolation). Three additional categories of residential segregation measurements described by Massey and Denton (1998) include measures of concentration, centralization, and clustering. Read more on the indices and their expressions from the U.S. Census Bureau.</t>
+  </si>
+  <si>
+    <t>From the U.S. Census Bureau, on Measures of Residential Segregation: "Massey and Denton (1988) used an extensive literature search and cluster analysis to identify 20 different indexes of segregation and classify them into five key dimensions of segregation. Basically, evenness involves the differential distribution of the subject population, exposure measures potential contact, concentration refers to the relative amount of physical space occupied, centralization indicates the degree to which a group is located near the center of an urban area, and clustering measures the degree to which minority group members live disproportionately in contiguous areas.""
+Note: In all of the calculations, non-Hispanic whites are considered the "majority" (reference) population.</t>
+  </si>
+  <si>
+    <t>Despite removing identified influences of cloud interferences, there may still be clouds or other atmospheric conditions that alter pixel values used in calculations. See the original source for greater documentation of these effects. Furthermore, summarizing NDVI to the census tract simplifies inter-census tract variability.</t>
+  </si>
+  <si>
+    <t>Access metrics are calculated for continental U.S., and does not include Hawaii, Alaska, or U.S. territories.</t>
+  </si>
+  <si>
+    <t>All nearest distance calculations are in miles. All nearest travel time calculations are in minutes.</t>
+  </si>
+  <si>
+    <t>*Euclidean distance or straight-line distance is a simple approximation of distance or travel time from an origin centroid to the nearest health center. It is not a precise calculation of real travel times or distances.</t>
+  </si>
+  <si>
+    <t>This dataset includes all US states, Washington D.C., and Puerto Rico. It does not include the territories Guam, Northern Mariana Islands, American Samoa, Palau. Zip code and tract centroids are not population-weighted.</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,6 +1118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1218,6 +1148,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1536,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C124711F-D56B-4700-AEF7-9E2D1BC031D1}">
   <dimension ref="A1:P124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="G136" sqref="G136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1547,8 +1483,9 @@
     <col min="7" max="7" width="10.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="144.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.06640625" style="1"/>
+    <col min="10" max="10" width="41.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="165.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -1568,10 +1505,10 @@
         <v>2010</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>374</v>
+        <v>337</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>120</v>
@@ -1586,7 +1523,7 @@
         <v>123</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>124</v>
@@ -1605,6 +1542,24 @@
       <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>313</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1632,37 +1587,37 @@
         <v>132</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>355</v>
+        <v>318</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>133</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>136</v>
@@ -1670,11 +1625,8 @@
       <c r="N3" s="1">
         <v>17621</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
@@ -1682,7 +1634,7 @@
         <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
@@ -1697,16 +1649,13 @@
         <v>138</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>136</v>
       </c>
       <c r="N4" s="1">
         <v>17077</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
@@ -1714,34 +1663,31 @@
         <v>132</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>363</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>136</v>
       </c>
       <c r="N5" s="1">
         <v>52</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
@@ -1749,22 +1695,22 @@
         <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>2</v>
@@ -1773,13 +1719,13 @@
         <v>139</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>136</v>
@@ -1787,11 +1733,8 @@
       <c r="N6" s="1">
         <v>7769</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
@@ -1799,7 +1742,7 @@
         <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>3</v>
@@ -1814,16 +1757,13 @@
         <v>138</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>136</v>
       </c>
       <c r="N7" s="1">
         <v>8867</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
@@ -1831,22 +1771,22 @@
         <v>132</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>4</v>
@@ -1855,13 +1795,13 @@
         <v>141</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>142</v>
@@ -1869,11 +1809,8 @@
       <c r="N8" s="1">
         <v>92.48</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
@@ -1881,22 +1818,22 @@
         <v>132</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>5</v>
@@ -1905,13 +1842,13 @@
         <v>143</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>142</v>
@@ -1919,11 +1856,8 @@
       <c r="N9" s="1">
         <v>1.96</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
@@ -1931,22 +1865,22 @@
         <v>132</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>6</v>
@@ -1955,13 +1889,13 @@
         <v>144</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>142</v>
@@ -1969,11 +1903,8 @@
       <c r="N10" s="1">
         <v>0.03</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
@@ -1981,22 +1912,22 @@
         <v>132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>7</v>
@@ -2005,13 +1936,13 @@
         <v>145</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>142</v>
@@ -2019,11 +1950,8 @@
       <c r="N11" s="1">
         <v>3.05</v>
       </c>
-      <c r="O11" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P11" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
@@ -2031,22 +1959,22 @@
         <v>132</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
@@ -2055,13 +1983,13 @@
         <v>146</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>142</v>
@@ -2069,11 +1997,8 @@
       <c r="N12" s="1">
         <v>0</v>
       </c>
-      <c r="O12" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P12" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
@@ -2081,22 +2006,22 @@
         <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>9</v>
@@ -2105,13 +2030,13 @@
         <v>147</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>142</v>
@@ -2119,11 +2044,8 @@
       <c r="N13" s="1">
         <v>2.4700000000000002</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P13" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
@@ -2131,22 +2053,22 @@
         <v>132</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
@@ -2155,13 +2077,13 @@
         <v>148</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>142</v>
@@ -2169,11 +2091,8 @@
       <c r="N14" s="1">
         <v>5.52</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P14" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
@@ -2181,7 +2100,7 @@
         <v>132</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>11</v>
@@ -2190,7 +2109,7 @@
         <v>149</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>135</v>
@@ -2200,9 +2119,6 @@
       </c>
       <c r="N15" s="1">
         <v>0.19</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
@@ -2210,22 +2126,22 @@
         <v>132</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
@@ -2234,13 +2150,13 @@
         <v>150</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>142</v>
@@ -2248,11 +2164,8 @@
       <c r="N16" s="1">
         <v>7.33</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P16" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.45">
@@ -2260,22 +2173,22 @@
         <v>132</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>13</v>
@@ -2284,13 +2197,13 @@
         <v>151</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>142</v>
@@ -2298,11 +2211,8 @@
       <c r="N17" s="1">
         <v>48.56</v>
       </c>
-      <c r="O17" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P17" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.45">
@@ -2310,22 +2220,22 @@
         <v>132</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
@@ -2334,13 +2244,13 @@
         <v>152</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>142</v>
@@ -2348,11 +2258,8 @@
       <c r="N18" s="1">
         <v>24.11</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>291</v>
-      </c>
       <c r="P18" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.45">
@@ -2360,22 +2267,22 @@
         <v>132</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>15</v>
@@ -2384,13 +2291,13 @@
         <v>153</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>136</v>
@@ -2398,11 +2305,8 @@
       <c r="N19" s="1">
         <v>799</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P19" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.45">
@@ -2410,22 +2314,22 @@
         <v>132</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -2434,13 +2338,13 @@
         <v>154</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>136</v>
@@ -2448,11 +2352,8 @@
       <c r="N20" s="1">
         <v>2023</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P20" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.45">
@@ -2460,22 +2361,22 @@
         <v>132</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>17</v>
@@ -2484,13 +2385,13 @@
         <v>155</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>136</v>
@@ -2498,11 +2399,8 @@
       <c r="N21" s="1">
         <v>642</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P21" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.45">
@@ -2510,22 +2408,22 @@
         <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>18</v>
@@ -2534,13 +2432,13 @@
         <v>156</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>136</v>
@@ -2548,11 +2446,8 @@
       <c r="N22" s="1">
         <v>649</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P22" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
@@ -2560,22 +2455,22 @@
         <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>19</v>
@@ -2584,13 +2479,13 @@
         <v>157</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>136</v>
@@ -2598,11 +2493,8 @@
       <c r="N23" s="1">
         <v>5735</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P23" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
@@ -2610,16 +2502,16 @@
         <v>132</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>20</v>
@@ -2628,13 +2520,13 @@
         <v>158</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>136</v>
@@ -2642,11 +2534,8 @@
       <c r="N24" s="1">
         <v>940</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P24" s="1" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
@@ -2654,16 +2543,16 @@
         <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>21</v>
@@ -2672,13 +2561,13 @@
         <v>159</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>136</v>
@@ -2686,11 +2575,8 @@
       <c r="N25" s="1">
         <v>1428</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P25" s="1" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.45">
@@ -2698,28 +2584,28 @@
         <v>132</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>136</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>371</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.45">
@@ -2727,16 +2613,16 @@
         <v>132</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>22</v>
@@ -2745,13 +2631,13 @@
         <v>160</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>136</v>
@@ -2759,11 +2645,8 @@
       <c r="N27" s="1">
         <v>1262</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P27" s="1" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.45">
@@ -2771,22 +2654,22 @@
         <v>132</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>23</v>
@@ -2795,13 +2678,13 @@
         <v>161</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>136</v>
@@ -2809,11 +2692,8 @@
       <c r="N28" s="1">
         <v>1185</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P28" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.45">
@@ -2821,22 +2701,22 @@
         <v>132</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>24</v>
@@ -2845,13 +2725,13 @@
         <v>162</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>136</v>
@@ -2859,11 +2739,8 @@
       <c r="N29" s="1">
         <v>4249</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P29" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.45">
@@ -2871,7 +2748,7 @@
         <v>132</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>25</v>
@@ -2886,16 +2763,13 @@
         <v>135</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>136</v>
       </c>
       <c r="N30" s="1">
         <v>14325</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.45">
@@ -2903,22 +2777,22 @@
         <v>132</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>26</v>
@@ -2927,13 +2801,13 @@
         <v>164</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>362</v>
+        <v>325</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>136</v>
@@ -2941,11 +2815,8 @@
       <c r="N31" s="1">
         <v>10076</v>
       </c>
-      <c r="O31" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="P31" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.45">
@@ -2953,13 +2824,13 @@
         <v>132</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>27</v>
@@ -2968,13 +2839,13 @@
         <v>165</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>142</v>
@@ -2982,11 +2853,8 @@
       <c r="N32" s="1">
         <v>14.3</v>
       </c>
-      <c r="O32" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="P32" s="1" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.45">
@@ -2994,37 +2862,37 @@
         <v>166</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>167</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>142</v>
@@ -3032,11 +2900,8 @@
       <c r="N33" s="1">
         <v>8.52</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="P33" s="1" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.45">
@@ -3044,10 +2909,10 @@
         <v>132</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>28</v>
@@ -3056,22 +2921,19 @@
         <v>168</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>366</v>
+        <v>329</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N34" s="1">
         <v>9.44</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.45">
@@ -3079,7 +2941,7 @@
         <v>132</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>29</v>
@@ -3094,16 +2956,13 @@
         <v>138</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N35" s="1">
         <v>4.34</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.45">
@@ -3111,7 +2970,7 @@
         <v>132</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>30</v>
@@ -3126,16 +2985,13 @@
         <v>138</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N36" s="1">
         <v>16.149999999999999</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.45">
@@ -3143,7 +2999,7 @@
         <v>132</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>31</v>
@@ -3158,7 +3014,7 @@
         <v>173</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>136</v>
@@ -3167,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.45">
@@ -3175,7 +3031,7 @@
         <v>132</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -3190,7 +3046,7 @@
         <v>173</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>136</v>
@@ -3199,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.45">
@@ -3207,7 +3063,7 @@
         <v>132</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>33</v>
@@ -3222,7 +3078,7 @@
         <v>173</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>136</v>
@@ -3231,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.45">
@@ -3239,22 +3095,22 @@
         <v>166</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>34</v>
@@ -3263,13 +3119,13 @@
         <v>176</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>142</v>
@@ -3277,11 +3133,8 @@
       <c r="N40" s="1">
         <v>3.4</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>297</v>
-      </c>
       <c r="P40" s="1" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.45">
@@ -3289,22 +3142,22 @@
         <v>166</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>35</v>
@@ -3313,13 +3166,13 @@
         <v>177</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>142</v>
@@ -3327,11 +3180,8 @@
       <c r="N41" s="1">
         <v>9</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="P41" s="1" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.45">
@@ -3339,7 +3189,7 @@
         <v>166</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>36</v>
@@ -3358,9 +3208,6 @@
       </c>
       <c r="N42" s="1">
         <v>33505</v>
-      </c>
-      <c r="O42" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.45">
@@ -3368,10 +3215,10 @@
         <v>166</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>37</v>
@@ -3380,22 +3227,19 @@
         <v>179</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N43" s="1">
         <v>35135</v>
-      </c>
-      <c r="O43" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.45">
@@ -3403,10 +3247,10 @@
         <v>166</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>38</v>
@@ -3415,19 +3259,16 @@
         <v>180</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N44" s="1">
         <v>0.42</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.45">
@@ -3435,7 +3276,7 @@
         <v>166</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>39</v>
@@ -3450,7 +3291,7 @@
         <v>138</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>142</v>
@@ -3458,8 +3299,8 @@
       <c r="N45" s="1">
         <v>13.43</v>
       </c>
-      <c r="O45" s="1" t="s">
-        <v>302</v>
+      <c r="O45" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.45">
@@ -3467,7 +3308,7 @@
         <v>166</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>40</v>
@@ -3482,7 +3323,7 @@
         <v>138</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>142</v>
@@ -3490,8 +3331,8 @@
       <c r="N46" s="1">
         <v>16.170000000000002</v>
       </c>
-      <c r="O46" s="1" t="s">
-        <v>302</v>
+      <c r="O46" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.45">
@@ -3499,7 +3340,7 @@
         <v>166</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>41</v>
@@ -3514,7 +3355,7 @@
         <v>138</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>142</v>
@@ -3522,8 +3363,8 @@
       <c r="N47" s="1">
         <v>14.5</v>
       </c>
-      <c r="O47" s="1" t="s">
-        <v>302</v>
+      <c r="O47" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.45">
@@ -3531,7 +3372,7 @@
         <v>166</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>42</v>
@@ -3546,7 +3387,7 @@
         <v>138</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>142</v>
@@ -3554,8 +3395,8 @@
       <c r="N48" s="1">
         <v>13.54</v>
       </c>
-      <c r="O48" s="1" t="s">
-        <v>302</v>
+      <c r="O48" s="5" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.45">
@@ -3563,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>43</v>
@@ -3578,16 +3419,13 @@
         <v>138</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>136</v>
       </c>
       <c r="N49" s="1">
         <v>3906</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.45">
@@ -3595,7 +3433,7 @@
         <v>166</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>44</v>
@@ -3610,16 +3448,13 @@
         <v>138</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N50" s="1">
         <v>44.05</v>
-      </c>
-      <c r="O50" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.45">
@@ -3627,7 +3462,7 @@
         <v>187</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>45</v>
@@ -3642,16 +3477,13 @@
         <v>190</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N51" s="1">
         <v>14.18</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.45">
@@ -3659,22 +3491,22 @@
         <v>187</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>46</v>
@@ -3683,13 +3515,13 @@
         <v>191</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>361</v>
+        <v>324</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>142</v>
@@ -3697,11 +3529,8 @@
       <c r="N52" s="1">
         <v>3.71</v>
       </c>
-      <c r="O52" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="P52" s="1" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.45">
@@ -3709,7 +3538,7 @@
         <v>187</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>47</v>
@@ -3724,16 +3553,13 @@
         <v>135</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N53" s="1">
         <v>0.91</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.45">
@@ -3741,7 +3567,7 @@
         <v>187</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>48</v>
@@ -3756,16 +3582,13 @@
         <v>135</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N54" s="1">
         <v>32.56</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.45">
@@ -3773,7 +3596,7 @@
         <v>187</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>49</v>
@@ -3788,16 +3611,13 @@
         <v>135</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N55" s="1">
         <v>26.69</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.45">
@@ -3805,7 +3625,7 @@
         <v>187</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>50</v>
@@ -3820,16 +3640,13 @@
         <v>135</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>142</v>
       </c>
       <c r="N56" s="1">
         <v>675.31</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.45">
@@ -3837,7 +3654,7 @@
         <v>187</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>51</v>
@@ -3852,16 +3669,13 @@
         <v>198</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N57" s="1">
         <v>1</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.45">
@@ -3869,7 +3683,7 @@
         <v>187</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>52</v>
@@ -3884,16 +3698,13 @@
         <v>198</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>199</v>
       </c>
       <c r="N58" s="1">
         <v>1</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.45">
@@ -3901,7 +3712,7 @@
         <v>187</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>53</v>
@@ -3916,16 +3727,13 @@
         <v>198</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>202</v>
       </c>
       <c r="N59" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.45">
@@ -3933,7 +3741,7 @@
         <v>128</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>54</v>
@@ -3948,7 +3756,7 @@
         <v>206</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>142</v>
@@ -3957,7 +3765,7 @@
         <v>11.5</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.45">
@@ -3965,7 +3773,7 @@
         <v>187</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>55</v>
@@ -3980,7 +3788,7 @@
         <v>206</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>136</v>
@@ -3989,7 +3797,7 @@
         <v>6</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.45">
@@ -3997,7 +3805,7 @@
         <v>187</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>56</v>
@@ -4012,7 +3820,7 @@
         <v>206</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>142</v>
@@ -4021,7 +3829,7 @@
         <v>0.52</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.45">
@@ -4029,7 +3837,7 @@
         <v>187</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>57</v>
@@ -4044,7 +3852,7 @@
         <v>206</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>142</v>
@@ -4053,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.45">
@@ -4061,7 +3869,7 @@
         <v>132</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>58</v>
@@ -4076,7 +3884,7 @@
         <v>138</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>142</v>
@@ -4085,15 +3893,18 @@
         <v>0.16</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>59</v>
@@ -4108,7 +3919,7 @@
         <v>138</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>142</v>
@@ -4117,15 +3928,18 @@
         <v>0.89</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P65" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>60</v>
@@ -4140,7 +3954,7 @@
         <v>138</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>142</v>
@@ -4149,15 +3963,18 @@
         <v>0.02</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P66" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>61</v>
@@ -4172,7 +3989,7 @@
         <v>138</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>142</v>
@@ -4181,15 +3998,18 @@
         <v>0.32</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>62</v>
@@ -4204,7 +4024,7 @@
         <v>138</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>142</v>
@@ -4213,15 +4033,18 @@
         <v>0.87</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>63</v>
@@ -4236,7 +4059,7 @@
         <v>138</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>142</v>
@@ -4245,15 +4068,18 @@
         <v>0.08</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>64</v>
@@ -4268,7 +4094,7 @@
         <v>138</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>142</v>
@@ -4277,15 +4103,18 @@
         <v>0.3</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>65</v>
@@ -4300,7 +4129,7 @@
         <v>138</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>142</v>
@@ -4309,15 +4138,18 @@
         <v>0.88</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>66</v>
@@ -4332,7 +4164,7 @@
         <v>138</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>142</v>
@@ -4341,15 +4173,18 @@
         <v>0.04</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+        <v>342</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>67</v>
@@ -4364,7 +4199,7 @@
         <v>212</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>142</v>
@@ -4372,16 +4207,16 @@
       <c r="N73" s="1">
         <v>0.2</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O73" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>68</v>
@@ -4396,7 +4231,7 @@
         <v>215</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>142</v>
@@ -4404,16 +4239,19 @@
       <c r="N74" s="1">
         <v>2.97</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O74" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>69</v>
@@ -4428,7 +4266,7 @@
         <v>215</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>142</v>
@@ -4436,16 +4274,19 @@
       <c r="N75" s="1">
         <v>2.97</v>
       </c>
-      <c r="O75" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O75" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>70</v>
@@ -4460,7 +4301,7 @@
         <v>215</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>142</v>
@@ -4468,16 +4309,19 @@
       <c r="N76" s="1">
         <v>8</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O76" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>71</v>
@@ -4492,7 +4336,7 @@
         <v>215</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>136</v>
@@ -4500,16 +4344,19 @@
       <c r="N77" s="1">
         <v>233</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O77" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>72</v>
@@ -4524,7 +4371,7 @@
         <v>215</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>142</v>
@@ -4532,16 +4379,19 @@
       <c r="N78" s="1">
         <v>4.01</v>
       </c>
-      <c r="O78" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O78" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>73</v>
@@ -4556,7 +4406,7 @@
         <v>215</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>142</v>
@@ -4564,16 +4414,19 @@
       <c r="N79" s="1">
         <v>8</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O79" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>74</v>
@@ -4588,7 +4441,7 @@
         <v>215</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>136</v>
@@ -4596,16 +4449,19 @@
       <c r="N80" s="1">
         <v>8</v>
       </c>
-      <c r="O80" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O80" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>75</v>
@@ -4620,7 +4476,7 @@
         <v>215</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>142</v>
@@ -4628,16 +4484,19 @@
       <c r="N81" s="1">
         <v>3.16</v>
       </c>
-      <c r="O81" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O81" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>76</v>
@@ -4652,7 +4511,7 @@
         <v>215</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>142</v>
@@ -4660,16 +4519,19 @@
       <c r="N82" s="1">
         <v>8</v>
       </c>
-      <c r="O82" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O82" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>77</v>
@@ -4684,7 +4546,7 @@
         <v>215</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>136</v>
@@ -4692,16 +4554,19 @@
       <c r="N83" s="1">
         <v>27</v>
       </c>
-      <c r="O83" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O83" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>78</v>
@@ -4716,7 +4581,7 @@
         <v>215</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>142</v>
@@ -4724,16 +4589,19 @@
       <c r="N84" s="1">
         <v>78.55</v>
       </c>
-      <c r="O84" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O84" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>79</v>
@@ -4748,7 +4616,7 @@
         <v>215</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>136</v>
@@ -4756,16 +4624,19 @@
       <c r="N85" s="1">
         <v>0</v>
       </c>
-      <c r="O85" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O85" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>80</v>
@@ -4780,7 +4651,7 @@
         <v>215</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>136</v>
@@ -4788,16 +4659,19 @@
       <c r="N86" s="1">
         <v>0</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O86" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>81</v>
@@ -4812,7 +4686,7 @@
         <v>215</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>142</v>
@@ -4820,16 +4694,19 @@
       <c r="N87" s="1">
         <v>79.39</v>
       </c>
-      <c r="O87" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O87" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P87" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>82</v>
@@ -4844,7 +4721,7 @@
         <v>215</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>136</v>
@@ -4852,16 +4729,19 @@
       <c r="N88" s="1">
         <v>0</v>
       </c>
-      <c r="O88" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O88" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P88" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>83</v>
@@ -4876,7 +4756,7 @@
         <v>215</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>136</v>
@@ -4884,16 +4764,19 @@
       <c r="N89" s="1">
         <v>0</v>
       </c>
-      <c r="O89" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O89" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P89" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>84</v>
@@ -4908,7 +4791,7 @@
         <v>215</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>142</v>
@@ -4916,16 +4799,19 @@
       <c r="N90" s="1">
         <v>78.55</v>
       </c>
-      <c r="O90" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O90" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P90" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>85</v>
@@ -4940,7 +4826,7 @@
         <v>215</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>136</v>
@@ -4948,16 +4834,19 @@
       <c r="N91" s="1">
         <v>0</v>
       </c>
-      <c r="O91" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O91" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P91" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>86</v>
@@ -4972,7 +4861,7 @@
         <v>215</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>136</v>
@@ -4980,16 +4869,19 @@
       <c r="N92" s="1">
         <v>0</v>
       </c>
-      <c r="O92" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O92" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P92" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>87</v>
@@ -5004,7 +4896,7 @@
         <v>215</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>142</v>
@@ -5012,16 +4904,19 @@
       <c r="N93" s="1">
         <v>78.55</v>
       </c>
-      <c r="O93" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O93" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P93" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>88</v>
@@ -5036,7 +4931,7 @@
         <v>215</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>136</v>
@@ -5044,16 +4939,19 @@
       <c r="N94" s="1">
         <v>0</v>
       </c>
-      <c r="O94" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O94" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P94" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>89</v>
@@ -5068,7 +4966,7 @@
         <v>215</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>136</v>
@@ -5076,16 +4974,19 @@
       <c r="N95" s="1">
         <v>0</v>
       </c>
-      <c r="O95" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O95" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P95" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>90</v>
@@ -5100,7 +5001,7 @@
         <v>215</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>142</v>
@@ -5108,16 +5009,19 @@
       <c r="N96" s="1">
         <v>79.39</v>
       </c>
-      <c r="O96" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O96" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P96" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>91</v>
@@ -5132,7 +5036,7 @@
         <v>215</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>136</v>
@@ -5140,16 +5044,19 @@
       <c r="N97" s="1">
         <v>0</v>
       </c>
-      <c r="O97" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O97" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P97" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>92</v>
@@ -5164,7 +5071,7 @@
         <v>215</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>136</v>
@@ -5172,16 +5079,19 @@
       <c r="N98" s="1">
         <v>0</v>
       </c>
-      <c r="O98" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O98" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P98" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>93</v>
@@ -5196,7 +5106,7 @@
         <v>215</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>142</v>
@@ -5204,16 +5114,19 @@
       <c r="N99" s="1">
         <v>78.55</v>
       </c>
-      <c r="O99" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O99" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P99" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>94</v>
@@ -5228,7 +5141,7 @@
         <v>215</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>136</v>
@@ -5236,16 +5149,19 @@
       <c r="N100" s="1">
         <v>0</v>
       </c>
-      <c r="O100" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O100" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P100" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>95</v>
@@ -5260,7 +5176,7 @@
         <v>215</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>136</v>
@@ -5268,16 +5184,19 @@
       <c r="N101" s="1">
         <v>0</v>
       </c>
-      <c r="O101" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O101" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P101" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>96</v>
@@ -5292,7 +5211,7 @@
         <v>244</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>142</v>
@@ -5300,16 +5219,19 @@
       <c r="N102" s="1">
         <v>4.1500000000000004</v>
       </c>
-      <c r="O102" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O102" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P102" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>97</v>
@@ -5324,7 +5246,7 @@
         <v>244</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>142</v>
@@ -5332,16 +5254,19 @@
       <c r="N103" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="O103" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O103" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P103" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>98</v>
@@ -5356,7 +5281,7 @@
         <v>244</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>136</v>
@@ -5364,16 +5289,19 @@
       <c r="N104" s="1">
         <v>30</v>
       </c>
-      <c r="O104" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O104" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P104" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>99</v>
@@ -5388,7 +5316,7 @@
         <v>248</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>142</v>
@@ -5396,16 +5324,19 @@
       <c r="N105" s="1">
         <v>5.39</v>
       </c>
-      <c r="O105" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O105" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P105" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>100</v>
@@ -5420,7 +5351,7 @@
         <v>248</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>142</v>
@@ -5428,16 +5359,19 @@
       <c r="N106" s="1">
         <v>10.4</v>
       </c>
-      <c r="O106" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O106" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P106" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>101</v>
@@ -5452,7 +5386,7 @@
         <v>248</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>136</v>
@@ -5460,16 +5394,19 @@
       <c r="N107" s="1">
         <v>9</v>
       </c>
-      <c r="O107" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O107" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P107" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>102</v>
@@ -5484,7 +5421,7 @@
         <v>252</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>142</v>
@@ -5492,16 +5429,19 @@
       <c r="N108" s="1">
         <v>0.4</v>
       </c>
-      <c r="O108" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O108" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P108" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>103</v>
@@ -5516,7 +5456,7 @@
         <v>252</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>142</v>
@@ -5524,16 +5464,19 @@
       <c r="N109" s="1">
         <v>0</v>
       </c>
-      <c r="O109" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O109" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P109" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>104</v>
@@ -5548,7 +5491,7 @@
         <v>252</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>136</v>
@@ -5556,16 +5499,19 @@
       <c r="N110" s="1">
         <v>115</v>
       </c>
-      <c r="O110" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O110" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P110" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>105</v>
@@ -5580,7 +5526,7 @@
         <v>257</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>142</v>
@@ -5588,16 +5534,19 @@
       <c r="N111" s="1">
         <v>3.78</v>
       </c>
-      <c r="O111" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P111" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>106</v>
@@ -5612,7 +5561,7 @@
         <v>257</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>142</v>
@@ -5620,16 +5569,19 @@
       <c r="N112" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="O112" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O112" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P112" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>107</v>
@@ -5644,7 +5596,7 @@
         <v>257</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>136</v>
@@ -5652,16 +5604,19 @@
       <c r="N113" s="1">
         <v>30</v>
       </c>
-      <c r="O113" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O113" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P113" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>108</v>
@@ -5676,7 +5631,7 @@
         <v>257</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>142</v>
@@ -5684,16 +5639,19 @@
       <c r="N114" s="1">
         <v>1.93</v>
       </c>
-      <c r="O114" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O114" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P114" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>109</v>
@@ -5708,7 +5666,7 @@
         <v>257</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>142</v>
@@ -5716,16 +5674,19 @@
       <c r="N115" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="O115" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O115" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P115" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>110</v>
@@ -5740,7 +5701,7 @@
         <v>257</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>136</v>
@@ -5748,16 +5709,19 @@
       <c r="N116" s="1">
         <v>52</v>
       </c>
-      <c r="O116" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O116" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P116" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>111</v>
@@ -5772,7 +5736,7 @@
         <v>265</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>142</v>
@@ -5780,16 +5744,19 @@
       <c r="N117" s="1">
         <v>3.99</v>
       </c>
-      <c r="O117" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O117" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P117" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>112</v>
@@ -5804,7 +5771,7 @@
         <v>265</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>142</v>
@@ -5812,16 +5779,19 @@
       <c r="N118" s="1">
         <v>11</v>
       </c>
-      <c r="O118" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O118" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P118" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>113</v>
@@ -5836,7 +5806,7 @@
         <v>265</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>136</v>
@@ -5844,16 +5814,19 @@
       <c r="N119" s="1">
         <v>8.84</v>
       </c>
-      <c r="O119" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O119" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="P119" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>268</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>114</v>
@@ -5868,7 +5841,7 @@
         <v>271</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>272</v>
@@ -5877,15 +5850,15 @@
         <v>0.37</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>115</v>
@@ -5900,7 +5873,7 @@
         <v>271</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>272</v>
@@ -5909,15 +5882,15 @@
         <v>0.32</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>268</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>116</v>
@@ -5932,7 +5905,7 @@
         <v>271</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>272</v>
@@ -5941,15 +5914,15 @@
         <v>0.5</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>268</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>117</v>
@@ -5964,7 +5937,7 @@
         <v>271</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>272</v>
@@ -5973,15 +5946,15 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>268</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>118</v>
@@ -5996,7 +5969,7 @@
         <v>271</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>272</v>
@@ -6005,11 +5978,22 @@
         <v>0.51</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O65" r:id="rId1" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{6090F734-722D-47D5-9BDE-55FC540980E2}"/>
+    <hyperlink ref="O66" r:id="rId2" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{AA9519B1-C852-4996-861A-6E93641E3579}"/>
+    <hyperlink ref="O67" r:id="rId3" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{33ACEC43-C6D0-4904-AE90-5C1D2EB1E220}"/>
+    <hyperlink ref="O68" r:id="rId4" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{2661A627-7BE0-4391-ACCA-19BB0BDE5478}"/>
+    <hyperlink ref="O69" r:id="rId5" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{196B7C21-CBE2-44FD-BD3A-219961AF1969}"/>
+    <hyperlink ref="O70" r:id="rId6" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{5C5BCF34-D64A-47FA-BE0A-91A30833C564}"/>
+    <hyperlink ref="O71" r:id="rId7" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{406FEEDF-F3C5-4623-A432-6EE0331DC080}"/>
+    <hyperlink ref="O72" r:id="rId8" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{79DC08EB-8498-4BBD-8630-2678A204F8C9}"/>
+    <hyperlink ref="O64" r:id="rId9" display="https://www.census.gov/topics/housing/housing-patterns/guidance/appendix-b.html" xr:uid="{E8F467F9-C754-4E04-84BB-A5AE7BF0C83D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>